--- a/data/landings/cdfw/public/fish_bulletins/raw/fb153/raw/Table18.xlsx
+++ b/data/landings/cdfw/public/fish_bulletins/raw/fb153/raw/Table18.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/wc_cc_synthesis/data/landings/cdfw/public/fish_bulletins/fb153/raw/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/wc_cc_synthesis/data/landings/cdfw/public/fish_bulletins/raw/fb153/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7D4C2E1-150F-074A-A6D8-BC063EDFEBAF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9202D4D6-18C0-4440-8807-4A8E0C5FC078}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20200" yWindow="460" windowWidth="51200" windowHeight="26520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="51200" windowHeight="26520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="38">
   <si>
     <t>species</t>
   </si>
@@ -131,6 +131,9 @@
   </si>
   <si>
     <t>Total check</t>
+  </si>
+  <si>
+    <t>Totals</t>
   </si>
 </sst>
 </file>
@@ -513,12 +516,12 @@
   <dimension ref="A1:D54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.5" customWidth="1"/>
     <col min="2" max="2" width="22.83203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.33203125" style="6" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.1640625" style="6" bestFit="1" customWidth="1"/>
@@ -1268,10 +1271,10 @@
     </row>
     <row r="54" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="C54" s="2">
         <v>1654516</v>
